--- a/src/main/resources/easyexcel/out/easy_excel_export_with_header.xlsx
+++ b/src/main/resources/easyexcel/out/easy_excel_export_with_header.xlsx
@@ -138,7 +138,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-11-04 11:13:08</t>
+          <t>2021-12-29 10:09:17</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -153,7 +153,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-11-04 11:13:08</t>
+          <t>2021-12-29 10:09:17</t>
         </is>
       </c>
       <c r="C4" t="n">
